--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H2">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I2">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J2">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N2">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O2">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P2">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q2">
-        <v>568.9429334768696</v>
+        <v>620.0116009201239</v>
       </c>
       <c r="R2">
-        <v>568.9429334768696</v>
+        <v>2480.046403680496</v>
       </c>
       <c r="S2">
-        <v>0.04181183143319171</v>
+        <v>0.03652754422323447</v>
       </c>
       <c r="T2">
-        <v>0.04181183143319171</v>
+        <v>0.0250077339811702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H3">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I3">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J3">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N3">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O3">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P3">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q3">
-        <v>85.00376833485679</v>
+        <v>99.70074360553701</v>
       </c>
       <c r="R3">
-        <v>85.00376833485679</v>
+        <v>598.2044616332221</v>
       </c>
       <c r="S3">
-        <v>0.006246959094971525</v>
+        <v>0.005873798676889257</v>
       </c>
       <c r="T3">
-        <v>0.006246959094971525</v>
+        <v>0.006032039570175726</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H4">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I4">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J4">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N4">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O4">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P4">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q4">
-        <v>15.85053083087943</v>
+        <v>19.07942334472683</v>
       </c>
       <c r="R4">
-        <v>15.85053083087943</v>
+        <v>114.476540068361</v>
       </c>
       <c r="S4">
-        <v>0.001164861507598428</v>
+        <v>0.001124050709606168</v>
       </c>
       <c r="T4">
-        <v>0.001164861507598428</v>
+        <v>0.001154332780574519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H5">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I5">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J5">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N5">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O5">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P5">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q5">
-        <v>18.17341520016813</v>
+        <v>20.21477404676367</v>
       </c>
       <c r="R5">
-        <v>18.17341520016813</v>
+        <v>121.288644280582</v>
       </c>
       <c r="S5">
-        <v>0.001335571158729799</v>
+        <v>0.001190939091881572</v>
       </c>
       <c r="T5">
-        <v>0.001335571158729799</v>
+        <v>0.00122302314448804</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H6">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I6">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J6">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N6">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O6">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P6">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q6">
-        <v>346.3496028063591</v>
+        <v>379.9154251958595</v>
       </c>
       <c r="R6">
-        <v>346.3496028063591</v>
+        <v>2279.492551175157</v>
       </c>
       <c r="S6">
-        <v>0.02545336334699574</v>
+        <v>0.02238244812570613</v>
       </c>
       <c r="T6">
-        <v>0.02545336334699574</v>
+        <v>0.02298543416254209</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H7">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I7">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J7">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N7">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O7">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P7">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q7">
-        <v>21.48540060831265</v>
+        <v>23.61870220977875</v>
       </c>
       <c r="R7">
-        <v>21.48540060831265</v>
+        <v>94.47480883911498</v>
       </c>
       <c r="S7">
-        <v>0.00157897021941988</v>
+        <v>0.001391479108105019</v>
       </c>
       <c r="T7">
-        <v>0.00157897021941988</v>
+        <v>0.0009526438230608481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H8">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I8">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J8">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N8">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O8">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P8">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q8">
-        <v>2861.536242315875</v>
+        <v>3047.029421194752</v>
       </c>
       <c r="R8">
-        <v>2861.536242315875</v>
+        <v>18282.17652716851</v>
       </c>
       <c r="S8">
-        <v>0.2102953810718951</v>
+        <v>0.1795135796927236</v>
       </c>
       <c r="T8">
-        <v>0.2102953810718951</v>
+        <v>0.1843496986627854</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H9">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I9">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J9">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N9">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O9">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P9">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q9">
-        <v>427.5320941893801</v>
+        <v>489.9764756501761</v>
       </c>
       <c r="R9">
-        <v>427.5320941893801</v>
+        <v>4409.788280851584</v>
       </c>
       <c r="S9">
-        <v>0.03141949535304764</v>
+        <v>0.02886661694086935</v>
       </c>
       <c r="T9">
-        <v>0.03141949535304764</v>
+        <v>0.04446643098175896</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H10">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I10">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J10">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N10">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O10">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P10">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q10">
-        <v>79.72129674821004</v>
+        <v>93.76528468908802</v>
       </c>
       <c r="R10">
-        <v>79.72129674821004</v>
+        <v>843.8875622017921</v>
       </c>
       <c r="S10">
-        <v>0.00585874825951613</v>
+        <v>0.005524115319781051</v>
       </c>
       <c r="T10">
-        <v>0.00585874825951613</v>
+        <v>0.008509403547547261</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H11">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I11">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J11">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N11">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O11">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P11">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q11">
-        <v>91.40439784379454</v>
+        <v>99.344933501056</v>
       </c>
       <c r="R11">
-        <v>91.40439784379454</v>
+        <v>894.104401509504</v>
       </c>
       <c r="S11">
-        <v>0.006717343779176235</v>
+        <v>0.005852836376656139</v>
       </c>
       <c r="T11">
-        <v>0.006717343779176235</v>
+        <v>0.009015768814309511</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H12">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I12">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J12">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N12">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O12">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P12">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q12">
-        <v>1741.988313108027</v>
+        <v>1867.083577822656</v>
       </c>
       <c r="R12">
-        <v>1741.988313108027</v>
+        <v>16803.75220040391</v>
       </c>
       <c r="S12">
-        <v>0.1280193801883716</v>
+        <v>0.1099979062588187</v>
       </c>
       <c r="T12">
-        <v>0.1280193801883716</v>
+        <v>0.1694418960425797</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H13">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I13">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J13">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N13">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O13">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P13">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q13">
-        <v>108.0622482568574</v>
+        <v>116.07344187888</v>
       </c>
       <c r="R13">
-        <v>108.0622482568574</v>
+        <v>696.44065127328</v>
       </c>
       <c r="S13">
-        <v>0.00794153550830793</v>
+        <v>0.006838384596484426</v>
       </c>
       <c r="T13">
-        <v>0.00794153550830793</v>
+        <v>0.007022611558746811</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H14">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I14">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J14">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N14">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O14">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P14">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q14">
-        <v>454.0693642449445</v>
+        <v>467.9307617390559</v>
       </c>
       <c r="R14">
-        <v>454.0693642449445</v>
+        <v>2807.584570434336</v>
       </c>
       <c r="S14">
-        <v>0.03336972936945353</v>
+        <v>0.02756780932400193</v>
       </c>
       <c r="T14">
-        <v>0.03336972936945353</v>
+        <v>0.02831048965973509</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H15">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I15">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J15">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N15">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O15">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P15">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q15">
-        <v>67.84091123227238</v>
+        <v>75.245438685428</v>
       </c>
       <c r="R15">
-        <v>67.84091123227238</v>
+        <v>677.2089481688521</v>
       </c>
       <c r="S15">
-        <v>0.004985654233164343</v>
+        <v>0.004433031712793294</v>
       </c>
       <c r="T15">
-        <v>0.004985654233164343</v>
+        <v>0.006828687237602399</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H16">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I16">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J16">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N16">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O16">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P16">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q16">
-        <v>12.65019746943551</v>
+        <v>14.39948718054733</v>
       </c>
       <c r="R16">
-        <v>12.65019746943551</v>
+        <v>129.595384624926</v>
       </c>
       <c r="S16">
-        <v>0.0009296677980624386</v>
+        <v>0.0008483355859773697</v>
       </c>
       <c r="T16">
-        <v>0.0009296677980624386</v>
+        <v>0.001306784783977416</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H17">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I17">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J17">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N17">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O17">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P17">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q17">
-        <v>14.50407519023213</v>
+        <v>15.25635101673466</v>
       </c>
       <c r="R17">
-        <v>14.50407519023213</v>
+        <v>137.307159150612</v>
       </c>
       <c r="S17">
-        <v>0.001065909973153711</v>
+        <v>0.0008988171118442629</v>
       </c>
       <c r="T17">
-        <v>0.001065909973153711</v>
+        <v>0.001384547040996041</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H18">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I18">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J18">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N18">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O18">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P18">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q18">
-        <v>276.4191884618357</v>
+        <v>286.727077436118</v>
       </c>
       <c r="R18">
-        <v>276.4191884618357</v>
+        <v>2580.543696925062</v>
       </c>
       <c r="S18">
-        <v>0.02031415073957641</v>
+        <v>0.01689232263638864</v>
       </c>
       <c r="T18">
-        <v>0.02031415073957641</v>
+        <v>0.02602110597758045</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H19">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I19">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J19">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N19">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O19">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P19">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q19">
-        <v>17.14734751189435</v>
+        <v>17.825339558015</v>
       </c>
       <c r="R19">
-        <v>17.14734751189435</v>
+        <v>106.95203734809</v>
       </c>
       <c r="S19">
-        <v>0.001260165056119523</v>
+        <v>0.00105016725176316</v>
       </c>
       <c r="T19">
-        <v>0.001260165056119523</v>
+        <v>0.001078458892856179</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H20">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I20">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J20">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>259.329551025896</v>
+        <v>260.047928</v>
       </c>
       <c r="N20">
-        <v>259.329551025896</v>
+        <v>520.0958559999999</v>
       </c>
       <c r="O20">
-        <v>0.5388708923837155</v>
+        <v>0.5333246545957803</v>
       </c>
       <c r="P20">
-        <v>0.5388708923837155</v>
+        <v>0.4360150557860642</v>
       </c>
       <c r="Q20">
-        <v>3447.988107345574</v>
+        <v>4917.579651995695</v>
       </c>
       <c r="R20">
-        <v>3447.988107345574</v>
+        <v>19670.31860798278</v>
       </c>
       <c r="S20">
-        <v>0.2533939505091752</v>
+        <v>0.2897157213558204</v>
       </c>
       <c r="T20">
-        <v>0.2533939505091752</v>
+        <v>0.1983471334823734</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H21">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I21">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J21">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>38.7455187167447</v>
+        <v>41.816914</v>
       </c>
       <c r="N21">
-        <v>38.7455187167447</v>
+        <v>125.450742</v>
       </c>
       <c r="O21">
-        <v>0.08051081014163811</v>
+        <v>0.08576108022407106</v>
       </c>
       <c r="P21">
-        <v>0.08051081014163811</v>
+        <v>0.1051698675167548</v>
       </c>
       <c r="Q21">
-        <v>515.151810581474</v>
+        <v>790.769636109748</v>
       </c>
       <c r="R21">
-        <v>515.151810581474</v>
+        <v>4744.617816658488</v>
       </c>
       <c r="S21">
-        <v>0.03785870146045461</v>
+        <v>0.04658763289351917</v>
       </c>
       <c r="T21">
-        <v>0.03785870146045461</v>
+        <v>0.04784270972721766</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H22">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I22">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J22">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.2248213344954</v>
+        <v>8.002373666666667</v>
       </c>
       <c r="N22">
-        <v>7.2248213344954</v>
+        <v>24.007121</v>
       </c>
       <c r="O22">
-        <v>0.01501273535711968</v>
+        <v>0.01641183302072443</v>
       </c>
       <c r="P22">
-        <v>0.01501273535711968</v>
+        <v>0.0201260326943997</v>
       </c>
       <c r="Q22">
-        <v>96.05961966343418</v>
+        <v>151.3271427060407</v>
       </c>
       <c r="R22">
-        <v>96.05961966343418</v>
+        <v>907.962856236244</v>
       </c>
       <c r="S22">
-        <v>0.007059457791942687</v>
+        <v>0.00891533140535984</v>
       </c>
       <c r="T22">
-        <v>0.007059457791942687</v>
+        <v>0.009155511582300498</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H23">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I23">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J23">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.28361392181418</v>
+        <v>8.478567333333332</v>
       </c>
       <c r="N23">
-        <v>8.28361392181418</v>
+        <v>25.435702</v>
       </c>
       <c r="O23">
-        <v>0.01721284137712648</v>
+        <v>0.01738844461978203</v>
       </c>
       <c r="P23">
-        <v>0.01721284137712648</v>
+        <v>0.02132366351038126</v>
       </c>
       <c r="Q23">
-        <v>110.1370907220882</v>
+        <v>160.3320992293213</v>
       </c>
       <c r="R23">
-        <v>110.1370907220882</v>
+        <v>961.9925953759279</v>
       </c>
       <c r="S23">
-        <v>0.008094016466066738</v>
+        <v>0.009445852039400062</v>
       </c>
       <c r="T23">
-        <v>0.008094016466066738</v>
+        <v>0.009700324510587667</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H24">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I24">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J24">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>157.869413097161</v>
+        <v>159.345759</v>
       </c>
       <c r="N24">
-        <v>157.869413097161</v>
+        <v>478.037277</v>
       </c>
       <c r="O24">
-        <v>0.3280429522174492</v>
+        <v>0.3267975351065956</v>
       </c>
       <c r="P24">
-        <v>0.3280429522174492</v>
+        <v>0.4007558368220747</v>
       </c>
       <c r="Q24">
-        <v>2098.996650089758</v>
+        <v>3013.273238194038</v>
       </c>
       <c r="R24">
-        <v>2098.996650089758</v>
+        <v>18079.63942916423</v>
       </c>
       <c r="S24">
-        <v>0.1542560579425055</v>
+        <v>0.1775248580856822</v>
       </c>
       <c r="T24">
-        <v>0.1542560579425055</v>
+        <v>0.1823074006393724</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H25">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I25">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J25">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.79324808432963</v>
+        <v>9.906257499999999</v>
       </c>
       <c r="N25">
-        <v>9.79324808432963</v>
+        <v>19.812515</v>
       </c>
       <c r="O25">
-        <v>0.0203497685229511</v>
+        <v>0.02031645243304672</v>
       </c>
       <c r="P25">
-        <v>0.0203497685229511</v>
+        <v>0.01660954367032533</v>
       </c>
       <c r="Q25">
-        <v>130.2088512222099</v>
+        <v>187.330122889615</v>
       </c>
       <c r="R25">
-        <v>130.2088512222099</v>
+        <v>749.3204915584598</v>
       </c>
       <c r="S25">
-        <v>0.009569097739103768</v>
+        <v>0.01103642147669412</v>
       </c>
       <c r="T25">
-        <v>0.009569097739103768</v>
+        <v>0.007555829395661491</v>
       </c>
     </row>
   </sheetData>
